--- a/assets/Books Read.xlsx
+++ b/assets/Books Read.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leehauser/allmygits/bookblog/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42A458F8-9DE6-0A4F-8EA3-AD8B5E90B14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{456FB5A4-551E-4043-B838-1A410FE47596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="20480" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="authors" sheetId="1" r:id="rId1"/>
-    <sheet name="Books_list" sheetId="2" r:id="rId2"/>
-    <sheet name="format" sheetId="3" r:id="rId3"/>
-    <sheet name="genres" sheetId="4" r:id="rId4"/>
+    <sheet name="Books_list" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -74,15 +71,6 @@
   </si>
   <si>
     <t>Format</t>
-  </si>
-  <si>
-    <t>Ebook</t>
-  </si>
-  <si>
-    <t>Audiobook</t>
-  </si>
-  <si>
-    <t>Ebook (graphic novel)</t>
   </si>
   <si>
     <t>Screenplay</t>
@@ -586,17 +574,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B53" totalsRowShown="0">
-  <autoFilter ref="A1:B53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Author"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:H89" totalsRowShown="0">
   <autoFilter ref="A1:H89" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
@@ -613,23 +590,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F497D1C-FD9F-AC4D-AF7F-085EFD6FAE85}" name="Table16" displayName="Table16" ref="J1:K53" totalsRowShown="0">
+  <autoFilter ref="J1:K53" xr:uid="{0F497D1C-FD9F-AC4D-AF7F-085EFD6FAE85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Format"/>
+    <tableColumn id="1" xr3:uid="{D478667A-4443-C646-B9F8-C294D5BD300B}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{74B97E1B-2E70-8C41-9872-9A7E86575E55}" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:B15" totalsRowShown="0">
-  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{34FD2A99-0A91-2449-B72B-5E122179C6D5}" name="Table47" displayName="Table47" ref="M1:N15" totalsRowShown="0">
+  <autoFilter ref="M1:N15" xr:uid="{34FD2A99-0A91-2449-B72B-5E122179C6D5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Genre"/>
+    <tableColumn id="1" xr3:uid="{95FA2E61-E668-C749-996B-FE8C2B511381}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{80038D8D-FFFB-CD47-A2E9-28EB97F9A0F3}" name="Genre"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -921,454 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1"/>
-    <col min="2" max="2" width="42" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H89"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1382,38 +917,50 @@
     <col min="8" max="8" width="7" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1431,15 +978,27 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1457,15 +1016,27 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1483,15 +1054,27 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1509,15 +1092,27 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1535,15 +1130,27 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1561,15 +1168,27 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1584,15 +1203,27 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1607,15 +1238,27 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1633,15 +1276,27 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1659,15 +1314,27 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1685,15 +1352,27 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1711,15 +1390,27 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -1734,15 +1425,27 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1760,15 +1463,27 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1786,15 +1501,21 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1812,15 +1533,21 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -1838,15 +1565,21 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -1864,15 +1597,21 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -1890,15 +1629,21 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -1913,15 +1658,21 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1939,15 +1690,21 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1962,15 +1719,21 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -1988,15 +1751,21 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2014,15 +1783,21 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -2040,15 +1815,21 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -2066,15 +1847,21 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -2092,15 +1879,21 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -2118,15 +1911,21 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>17</v>
@@ -2141,15 +1940,21 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -2167,15 +1972,21 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -2193,15 +2004,21 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>18</v>
@@ -2216,15 +2033,21 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>19</v>
@@ -2242,15 +2065,21 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -2265,15 +2094,21 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="J35">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>21</v>
@@ -2291,15 +2126,21 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>22</v>
@@ -2314,15 +2155,21 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J37">
+        <v>36</v>
+      </c>
+      <c r="K37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>23</v>
@@ -2340,15 +2187,21 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J38">
+        <v>37</v>
+      </c>
+      <c r="K38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>24</v>
@@ -2366,15 +2219,21 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>25</v>
@@ -2392,15 +2251,21 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J40">
+        <v>39</v>
+      </c>
+      <c r="K40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>26</v>
@@ -2415,15 +2280,21 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J41">
+        <v>40</v>
+      </c>
+      <c r="K41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>27</v>
@@ -2441,15 +2312,21 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J42">
+        <v>41</v>
+      </c>
+      <c r="K42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -2464,15 +2341,21 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J43">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>29</v>
@@ -2490,15 +2373,21 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J44">
+        <v>43</v>
+      </c>
+      <c r="K44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2516,15 +2405,21 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J45">
+        <v>44</v>
+      </c>
+      <c r="K45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -2542,15 +2437,21 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J46">
+        <v>45</v>
+      </c>
+      <c r="K46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>31</v>
@@ -2568,15 +2469,21 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <v>46</v>
+      </c>
+      <c r="K47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>32</v>
@@ -2594,15 +2501,21 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J48">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>33</v>
@@ -2620,15 +2533,21 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J49">
+        <v>48</v>
+      </c>
+      <c r="K49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <v>21</v>
@@ -2646,15 +2565,21 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J50">
+        <v>49</v>
+      </c>
+      <c r="K50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>21</v>
@@ -2672,15 +2597,21 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J51">
+        <v>50</v>
+      </c>
+      <c r="K51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>21</v>
@@ -2698,15 +2629,21 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>51</v>
+      </c>
+      <c r="K52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <v>21</v>
@@ -2724,15 +2661,21 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="J53">
+        <v>52</v>
+      </c>
+      <c r="K53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <v>21</v>
@@ -2750,15 +2693,15 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -2776,15 +2719,15 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <v>16</v>
@@ -2802,15 +2745,15 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <v>34</v>
@@ -2828,15 +2771,15 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C58">
         <v>35</v>
@@ -2854,15 +2797,15 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C59">
         <v>36</v>
@@ -2880,15 +2823,15 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C60">
         <v>18</v>
@@ -2906,15 +2849,15 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C61">
         <v>37</v>
@@ -2932,15 +2875,15 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C62">
         <v>38</v>
@@ -2958,15 +2901,15 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C63">
         <v>39</v>
@@ -2984,15 +2927,15 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C64">
         <v>40</v>
@@ -3007,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3015,7 +2958,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C65">
         <v>41</v>
@@ -3035,7 +2978,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C66">
         <v>38</v>
@@ -3053,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3061,7 +3004,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C67">
         <v>38</v>
@@ -3076,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3084,7 +3027,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C68">
         <v>37</v>
@@ -3107,7 +3050,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C69">
         <v>16</v>
@@ -3125,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3133,7 +3076,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C70">
         <v>42</v>
@@ -3151,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3159,7 +3102,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -3177,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3185,7 +3128,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C72">
         <v>43</v>
@@ -3203,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3211,7 +3154,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C73">
         <v>16</v>
@@ -3229,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3237,7 +3180,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C74">
         <v>44</v>
@@ -3255,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3263,7 +3206,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C75">
         <v>45</v>
@@ -3283,7 +3226,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C76">
         <v>47</v>
@@ -3301,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3309,7 +3252,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C77">
         <v>46</v>
@@ -3327,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3335,7 +3278,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C78">
         <v>16</v>
@@ -3353,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3361,7 +3304,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C79">
         <v>47</v>
@@ -3379,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3387,7 +3330,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C80">
         <v>16</v>
@@ -3405,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3413,7 +3356,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C81">
         <v>16</v>
@@ -3431,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3439,7 +3382,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C82">
         <v>16</v>
@@ -3457,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3465,7 +3408,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C83">
         <v>47</v>
@@ -3483,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3491,7 +3434,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C84">
         <v>48</v>
@@ -3509,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3517,7 +3460,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>49</v>
@@ -3535,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3543,7 +3486,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C86">
         <v>50</v>
@@ -3561,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3569,7 +3512,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C87">
         <v>51</v>
@@ -3587,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -3595,7 +3538,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C88">
         <v>52</v>
@@ -3613,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -3621,7 +3564,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>51</v>
@@ -3639,213 +3582,15 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1"/>
-    <col min="2" max="2" width="21" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1"/>
-    <col min="2" max="2" width="18" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>